--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441156A-4775-4F6B-AB95-6DAE001B44CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3787FE2C-C20E-4939-8CBF-D56E14CB338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -879,14 +879,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -897,8 +891,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,7 +2125,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,23 +2166,23 @@
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2836,9 +2836,9 @@
       <c r="A31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="23"/>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
@@ -2854,11 +2854,11 @@
       <c r="A32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="23"/>
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
@@ -2874,11 +2874,11 @@
       <c r="A33" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="23"/>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
@@ -2892,9 +2892,9 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="23"/>
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
@@ -2908,9 +2908,9 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="23"/>
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
@@ -2924,9 +2924,9 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="25"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3787FE2C-C20E-4939-8CBF-D56E14CB338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E195AA-FA31-4F79-8F42-AC61A6FAD424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -2124,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q31" activeCellId="5" sqref="I6:I28 M6:M28 Q6:Q28 I31:I36 M31:M36 Q31:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,8 +3236,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14 C6:D28" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M28 I6:I28 Q6:Q28 Q31:Q36 I31:I36 M31:M36" xr:uid="{21CCF7DC-7941-4D52-B28E-045CE68FA307}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 M6:M28 Q6:Q28 I31:I36 M31:M36 Q31:Q36" xr:uid="{5E9B42EB-1DFD-4AFE-912F-3B8733138498}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
